--- a/週報シートgroup4.xlsx
+++ b/週報シートgroup4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishinakaryuu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritsumei365-my.sharepoint.com/personal/is0628vs_ed_ritsumei_ac_jp/Documents/2023年度春課題用/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F555BB51-EAE6-714B-93DE-B0444C62CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{F8967DB8-93FE-D544-80C2-3F7FDA2CFB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21152C6F-95E3-EC4A-A19F-4CD0B59ACF83}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>5/10〜16</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>グループ全体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">進捗：
-スケジュールとの差：
-今後のスケジュール：
-</t>
   </si>
   <si>
     <t>小沼</t>
@@ -58,9 +52,6 @@
     <t>西中</t>
   </si>
   <si>
-    <t>メンバーD</t>
-  </si>
-  <si>
     <t xml:space="preserve">進捗：要求仕様書、設計書の見直し　各担当プログラムの確認
 スケジュールとの差：なし
 今後のスケジュール：各プログラムの作成とテスト
@@ -70,15 +61,15 @@
   <si>
     <t>進捗：要求仕様書、設計書の見直し　担当プログラムの確認
 スケジュールとの差：なし
-今後のスケジュール：スプレッドシート管理プログラム,Remo3からのデータ取得用
-プログラムの作成</t>
+今後のスケジュール：人感センサデータ管理用プログラム,Twitter 用プログラムの
+作成</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>進捗：要求仕様書、設計書の見直し　担当プログラムの確認
 スケジュールとの差：なし
-今後のスケジュール：人感センサデータ管理用プログラム,Twitter 用プログラムの
-作成</t>
+今後のスケジュール：スプレッドシート管理プログラム,Remo3からのデータ取得用
+プログラムの作成</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -102,12 +93,123 @@
 </t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve">進捗：
+スケジュールとの差：
+今後のスケジュール：
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗：Twitter用プログラム、家電操作用プログラム、睡眠時間計算用プログラム完成。二度寝検知プログラム、remoからの取得データ管理プログラムは作成途中。
+スケジュールとの差：二度寝検知プログラム、remoからの取得データ管理プログラムが未完成で遅れ
+今後のスケジュール：二度寝検知プログラム、remoからの取得データ管理プログラムを完成させ、全体のテストをする。
+</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t xml:space="preserve">カデンソウサヨウプログラム </t>
+    </rPh>
+    <rPh sb="28" eb="35">
+      <t xml:space="preserve">スイミンジカンケイサンヨウプログラムノカンセイ </t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t xml:space="preserve">ニドネケンサプログラム </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">ケンチ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">シュトクデータカンリ </t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t xml:space="preserve">サクセイトチュウ </t>
+    </rPh>
+    <rPh sb="122" eb="125">
+      <t xml:space="preserve">ミカンセイデ </t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t xml:space="preserve">オクレ </t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t xml:space="preserve">ゼンタイノテスト </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>進捗：データ管理用プログラム作成途中
+スケジュールとの差：データ管理用プログラム完成で遅れ
+今後のスケジュール：プログラムを完成させテスト</t>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">オクレ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗：Twitter用プログラム完成
+スケジュールとの差：なし
+今後のスケジュール：完成したプログラムのテスト
+</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カンセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗：家電操作用プログラム完成
+スケジュールとの差：なし
+今後のスケジュール：完成したプログラムのテスト
+</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カンセイ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗：睡眠時間計算用プログラム完成、二度寝検知用プログラム作成途中
+スケジュールとの差：二度寝検知用プログラム未完成で遅れ
+今後のスケジュール：二度寝検知用プログラムを完成させテスト
+</t>
+    <rPh sb="3" eb="10">
+      <t>スイミンジカンケ</t>
+    </rPh>
+    <rPh sb="18" eb="24">
+      <t xml:space="preserve">ニドネケンチヨウプログラム </t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t xml:space="preserve">サクセイトチュウ </t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t xml:space="preserve">ミカンセイデオクレ </t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t xml:space="preserve">カンセイサセ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗：完成したプログラムの確認
+スケジュールとの差：なし
+今後のスケジュール：完成したプログラムのテスト
+</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">カンセイプログラムノカクニン </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">カンセイシタプログラムノテスト </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,6 +220,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,13 +228,6 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -161,7 +257,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -384,8 +480,8 @@
   </sheetPr>
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -409,152 +505,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:20" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+    <row r="6" spans="1:20" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+    <row r="7" spans="1:20" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="84" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="84" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
